--- a/testdata/Team3Search and Sort.xlsx
+++ b/testdata/Team3Search and Sort.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheet\git\Team2_TaxExempt\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8A0EDC-BF88-4ECC-AEDD-38C34FD37D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80860469-A9D5-43AA-A92E-E0AF61AFC5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SortandView" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SearchItem" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="79">
   <si>
     <t>TCID</t>
   </si>
@@ -214,13 +214,58 @@
   </si>
   <si>
     <t>SortBy with CaseQuantity &amp; View option 48</t>
+  </si>
+  <si>
+    <t>Valid ProductName</t>
+  </si>
+  <si>
+    <t>Valid ProductName with all caps</t>
+  </si>
+  <si>
+    <t>SCHOOL BACKPACK</t>
+  </si>
+  <si>
+    <t>school backpack</t>
+  </si>
+  <si>
+    <t>invalid ProductName</t>
+  </si>
+  <si>
+    <t>schoolbackpack</t>
+  </si>
+  <si>
+    <t>15" school backpack</t>
+  </si>
+  <si>
+    <t>Valid ProductName with SKU number</t>
+  </si>
+  <si>
+    <t>Masks</t>
+  </si>
+  <si>
+    <t>2344876</t>
+  </si>
+  <si>
+    <t>SKU #2344876</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Valid ProductName with all smalls</t>
+  </si>
+  <si>
+    <t>Valid ProductName with alphanumeric value</t>
+  </si>
+  <si>
+    <t>Valid product Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +285,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,11 +319,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,8 +336,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{7C6D3A73-4885-4345-BC68-95533C66B39A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -625,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,13 +1291,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{7FBDC5CD-87E4-42D1-AA6A-03C16D97D9FC}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{031060D7-A0FD-4E3C-B697-982206B8FAF0}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{DDC01F7F-7AEE-4005-AEC2-0D9B1BBB299B}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{8C2DF93D-DBA2-4738-8177-C345E67B84FB}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{2926F059-7AFA-45DE-8A98-A38D5C8A91A9}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{AD5CBE0D-3806-4403-9436-84E930512129}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{0054B770-84D9-497A-BC72-56F84362E542}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{ECB37A84-D80E-4F08-8EB0-69DAB6E47EC8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
